--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asaf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiarra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E020AE-9576-B644-832D-F0164712A280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95DCE5-B17C-4D2D-A3EE-1A853F1874AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16000" xr2:uid="{F42BEA6D-8450-7D41-85E9-3A7D1598B7BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F42BEA6D-8450-7D41-85E9-3A7D1598B7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="453">
   <si>
     <t>EN</t>
   </si>
@@ -1297,6 +1297,102 @@
   </si>
   <si>
     <t>مطلوب</t>
+  </si>
+  <si>
+    <t>Giriş</t>
+  </si>
+  <si>
+    <t>Ləğv et</t>
+  </si>
+  <si>
+    <t>Parolunuzu unutmusunuz?</t>
+  </si>
+  <si>
+    <t>Parolu yenidən qur</t>
+  </si>
+  <si>
+    <t>Xoş gəlmisiniz</t>
+  </si>
+  <si>
+    <t>Çıxış</t>
+  </si>
+  <si>
+    <t>Kurslar Siyahısı</t>
+  </si>
+  <si>
+    <t>Profili Yenilə</t>
+  </si>
+  <si>
+    <t>Tələb Olunur</t>
+  </si>
+  <si>
+    <t>E-poçt işlək olmalıdır</t>
+  </si>
+  <si>
+    <t>E-poçt və ya İstifadəçi Adı</t>
+  </si>
+  <si>
+    <t>Lütfən, öz hesab e-poçt ünvanınızı daxil edin</t>
+  </si>
+  <si>
+    <t>Parol</t>
+  </si>
+  <si>
+    <t>Lütfən, öz hesab parolunuzu daxil edin</t>
+  </si>
+  <si>
+    <t>Parolu Yenilə</t>
+  </si>
+  <si>
+    <t>Parolunuzu yeniləyin</t>
+  </si>
+  <si>
+    <t>Yeni Parol</t>
+  </si>
+  <si>
+    <t>Köhnə Parol</t>
+  </si>
+  <si>
+    <t>Lüğət</t>
+  </si>
+  <si>
+    <t>Bazar Müşahidəsi: İstiqrazlar</t>
+  </si>
+  <si>
+    <t>Bazar Müşahidəsi: Əmtəələr</t>
+  </si>
+  <si>
+    <t>Bazar Müşahidəsi: Aksiyalar</t>
+  </si>
+  <si>
+    <t>Bazar Müşahidəsi: Valyutalar</t>
+  </si>
+  <si>
+    <t>Video Akademiya</t>
+  </si>
+  <si>
+    <t>Təqvim</t>
+  </si>
+  <si>
+    <t>Bazar Xəbərləri</t>
+  </si>
+  <si>
+    <t>Valyuta Proqnozu</t>
+  </si>
+  <si>
+    <t>Təhsil Materialları</t>
+  </si>
+  <si>
+    <t>Bazar Yenilikləri</t>
+  </si>
+  <si>
+    <t>Gündəlik Siqnallar</t>
+  </si>
+  <si>
+    <t>E-kitablar</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
 </sst>
 </file>
@@ -1388,21 +1484,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,60 +1818,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722BCA89-4F0C-644E-9C36-D04DCB0B5B54}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="22.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="4"/>
+    <col min="1" max="14" width="22.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1884,7 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1818,8 +1914,11 @@
       <c r="M2" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +1928,7 @@
       <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1859,8 +1958,11 @@
       <c r="M3" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1870,7 +1972,7 @@
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1900,8 +2002,11 @@
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1911,7 +2016,7 @@
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1941,8 +2046,11 @@
       <c r="M5" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,7 +2060,7 @@
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1982,8 +2090,11 @@
       <c r="M6" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1993,7 +2104,7 @@
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2023,8 +2134,11 @@
       <c r="M7" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2034,7 +2148,7 @@
       <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2064,8 +2178,11 @@
       <c r="M8" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2192,7 @@
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2105,8 +2222,11 @@
       <c r="M9" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2236,7 @@
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2146,8 +2266,11 @@
       <c r="M10" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2280,7 @@
       <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2187,8 +2310,11 @@
       <c r="M11" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2198,7 +2324,7 @@
       <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2228,8 +2354,11 @@
       <c r="M12" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,7 +2368,7 @@
       <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2269,8 +2398,11 @@
       <c r="M13" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2280,7 +2412,7 @@
       <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2310,8 +2442,11 @@
       <c r="M14" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N14" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2321,7 +2456,7 @@
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2351,8 +2486,11 @@
       <c r="M15" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N15" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2500,7 @@
       <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2392,8 +2530,11 @@
       <c r="M16" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N16" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2403,7 +2544,7 @@
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2433,8 +2574,11 @@
       <c r="M17" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N17" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2588,7 @@
       <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2474,8 +2618,11 @@
       <c r="M18" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N18" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2485,7 +2632,7 @@
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2515,8 +2662,11 @@
       <c r="M19" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N19" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,7 +2676,7 @@
       <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2556,8 +2706,11 @@
       <c r="M20" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N20" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +2720,7 @@
       <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2597,8 +2750,11 @@
       <c r="M21" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N21" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2764,7 @@
       <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2638,8 +2794,11 @@
       <c r="M22" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N22" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2808,7 @@
       <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2679,8 +2838,11 @@
       <c r="M23" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N23" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2852,7 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2720,8 +2882,11 @@
       <c r="M24" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N24" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2896,7 @@
       <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2761,8 +2926,11 @@
       <c r="M25" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N25" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2940,7 @@
       <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2802,8 +2970,11 @@
       <c r="M26" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N26" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2813,7 +2984,7 @@
       <c r="C27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2843,8 +3014,11 @@
       <c r="M27" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N27" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2854,7 +3028,7 @@
       <c r="C28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2884,8 +3058,11 @@
       <c r="M28" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N28" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +3072,7 @@
       <c r="C29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2925,8 +3102,11 @@
       <c r="M29" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N29" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +3116,7 @@
       <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2966,8 +3146,11 @@
       <c r="M30" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N30" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2977,7 +3160,7 @@
       <c r="C31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3007,8 +3190,11 @@
       <c r="M31" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N31" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -3018,7 +3204,7 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3048,8 +3234,11 @@
       <c r="M32" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N32" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3059,7 +3248,7 @@
       <c r="C33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3089,8 +3278,11 @@
       <c r="M33" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N33" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -3100,7 +3292,7 @@
       <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3130,8 +3322,11 @@
       <c r="M34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N34" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3141,7 +3336,7 @@
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3170,6 +3365,9 @@
       </c>
       <c r="M35" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
